--- a/biology/Botanique/Ivraie_raide/Ivraie_raide.xlsx
+++ b/biology/Botanique/Ivraie_raide/Ivraie_raide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lolium rigidum
 L'ivraie raide est une plante herbacée annuelle de la famille des poacées, originaire des régions tempérées de l'ancien monde
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ivraie raide est une plante annuelle à tiges dressées formant des touffes de 20 cm à 60 cm de haut, aux feuilles très allongées, glabres, à pointe aiguë de couleur vert foncé.
 Les fleurs verdâtres sont regroupées en épis de 20  à   25 cm de long formés de nombreux épillets relativement écartés de l'axe de l'épi, chaque épillet comptant une dizaine de fleurs.
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire des régions tempérées et chaudes de l'ancien monde : Afrique du Nord (du Maroc à l'Égypte), Europe méridionale  du Portugal à la Grèce, Asie occidentale (Turquie, région du Caucase, Moyen-Orient, péninsule Arabique), Asie centrale (Daghestan, Turkménistan, Ouzbékistan) et sous-continent indien (Inde, Pakistan).
 Elle s'est largement naturalisée dans toutes les régions tempérées du globe.
@@ -578,9 +594,11 @@
           <t>Effets du Glyphosate</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'INRA de Dijon confirmait en 2007 un premier cas de résistance au glyphosate[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'INRA de Dijon confirmait en 2007 un premier cas de résistance au glyphosate.
 </t>
         </is>
       </c>
